--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T18:16:13+00:00</t>
+    <t>2023-02-24T18:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:13:37+00:00</t>
+    <t>2023-02-28T09:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:38:47+00:00</t>
+    <t>2023-02-28T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:15+00:00</t>
+    <t>2023-03-06T10:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:09+00:00</t>
+    <t>2023-03-06T10:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:54+00:00</t>
+    <t>2023-03-06T10:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:59:17+00:00</t>
+    <t>2023-03-07T10:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
+++ b/ig/main/StructureDefinition-ror-bundle-resultat-recherche-offre-de-soins.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:19:57+00:00</t>
+    <t>2023-03-07T10:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
